--- a/Input_Data/week4/144L_2018_Exp_TOC.xlsx
+++ b/Input_Data/week4/144L_2018_Exp_TOC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasbaetge/GITHUB/eemb144l/Input_Data/week4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B07D200A-787A-FE47-B533-413A91EDA33D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8593D3DC-EADD-554C-8E2B-BEADE826BC83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="3300" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{8EED3AEA-F4EA-A846-9F48-9BC514B549B3}"/>
+    <workbookView xWindow="22320" yWindow="4480" windowWidth="26840" windowHeight="15940" xr2:uid="{8EED3AEA-F4EA-A846-9F48-9BC514B549B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="68">
   <si>
     <t>Experiment</t>
   </si>
@@ -163,6 +163,81 @@
   </si>
   <si>
     <t>PTOC_sd</t>
+  </si>
+  <si>
+    <t>DNA_SampleID</t>
+  </si>
+  <si>
+    <t>144_A0_S6</t>
+  </si>
+  <si>
+    <t>144_A4_S7</t>
+  </si>
+  <si>
+    <t>144_A8_S8</t>
+  </si>
+  <si>
+    <t>144_B0_S9</t>
+  </si>
+  <si>
+    <t>144_B4_S10</t>
+  </si>
+  <si>
+    <t>144_B8_S11</t>
+  </si>
+  <si>
+    <t>144_C0_S12</t>
+  </si>
+  <si>
+    <t>144_C4_S13</t>
+  </si>
+  <si>
+    <t>144_C8_S14</t>
+  </si>
+  <si>
+    <t>144_D0_S15</t>
+  </si>
+  <si>
+    <t>144_D4_S16</t>
+  </si>
+  <si>
+    <t>144_D8_S17</t>
+  </si>
+  <si>
+    <t>144_E0_S18</t>
+  </si>
+  <si>
+    <t>144_E4_S19</t>
+  </si>
+  <si>
+    <t>144_E8_S20</t>
+  </si>
+  <si>
+    <t>144_F0_S21</t>
+  </si>
+  <si>
+    <t>144_F4_S22</t>
+  </si>
+  <si>
+    <t>144_F8_S23</t>
+  </si>
+  <si>
+    <t>144_G0_S24</t>
+  </si>
+  <si>
+    <t>144_G4_S25</t>
+  </si>
+  <si>
+    <t>144_G8_S26</t>
+  </si>
+  <si>
+    <t>144_H0_S27</t>
+  </si>
+  <si>
+    <t>144_H4_S28</t>
+  </si>
+  <si>
+    <t>144_H8_S29</t>
   </si>
 </sst>
 </file>
@@ -526,15 +601,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261D4165-9365-334F-A488-A389C9348BD9}">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,8 +655,11 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -627,8 +705,11 @@
       <c r="O2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -675,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -722,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -769,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -815,8 +896,11 @@
       <c r="O6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -863,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -910,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -957,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1003,8 +1087,11 @@
       <c r="O10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1051,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1097,8 +1184,11 @@
       <c r="O12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1145,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1192,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1239,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1285,8 +1375,11 @@
       <c r="O16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1333,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1380,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1427,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1473,8 +1566,11 @@
       <c r="O20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1521,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1567,8 +1663,11 @@
       <c r="O22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1615,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1662,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1709,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1755,8 +1854,11 @@
       <c r="O26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1803,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1850,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1897,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1943,8 +2045,11 @@
       <c r="O30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1991,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -2037,8 +2142,11 @@
       <c r="O32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2085,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2132,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -2179,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -2225,8 +2333,11 @@
       <c r="O36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2273,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2320,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -2367,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -2413,8 +2524,11 @@
       <c r="O40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -2461,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -2507,8 +2621,11 @@
       <c r="O42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2555,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -2602,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -2649,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -2695,8 +2812,11 @@
       <c r="O46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -2743,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -2790,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -2837,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -2883,8 +3003,11 @@
       <c r="O50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -2931,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2977,8 +3100,11 @@
       <c r="O52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -3025,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -3072,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -3119,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -3165,8 +3291,11 @@
       <c r="O56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -3213,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -3260,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -3307,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -3353,8 +3482,11 @@
       <c r="O60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -3401,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -3447,8 +3579,11 @@
       <c r="O62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -3495,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -3542,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -3589,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -3635,8 +3770,11 @@
       <c r="O66" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -3683,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -3730,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -3777,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -3823,8 +3961,11 @@
       <c r="O70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -3871,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -3917,8 +4058,11 @@
       <c r="O72" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -3965,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -4012,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -4059,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -4105,8 +4249,11 @@
       <c r="O76" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -4153,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -4200,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -4247,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -4292,6 +4439,9 @@
       </c>
       <c r="O80" t="b">
         <v>1</v>
+      </c>
+      <c r="P80" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
@@ -4350,7 +4500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65309543-226B-414C-B906-4D00FDA9934C}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
